--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Recap" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="liste des taches" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="avancement projet" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Feuil4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -205,13 +204,13 @@
     <t xml:space="preserve">redirection de tous a partir des controller</t>
   </si>
   <si>
+    <t xml:space="preserve">integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liste des villes + besoins + dons</t>
+  </si>
+  <si>
     <t xml:space="preserve">WIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des villes + besoins + dons</t>
   </si>
   <si>
     <t xml:space="preserve">filtre par region</t>
@@ -309,7 +308,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +338,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -467,7 +472,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,6 +575,10 @@
     </xf>
     <xf numFmtId="168" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -835,7 +844,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,15 +919,15 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="35.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="36.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="13.76"/>
@@ -1196,12 +1205,11 @@
         <v>10</v>
       </c>
       <c r="G9" s="19" t="n">
-        <f aca="false">E9-F9</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="20" t="n">
         <f aca="false">(F9/(F9+G9))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>4</v>
@@ -1401,12 +1409,15 @@
       <c r="E16" s="19" t="n">
         <v>5</v>
       </c>
+      <c r="F16" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G16" s="19" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="20" t="n">
         <f aca="false">(F16/(F16+G16))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>3</v>
@@ -1552,7 +1563,9 @@
       <c r="F21" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" s="20" t="n">
         <f aca="false">(F21/(F21+G21))</f>
         <v>1</v>
@@ -1644,30 +1657,33 @@
       <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
+      <c r="F24" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G24" s="19" t="n">
         <f aca="false">E24-F24</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">(F24/(F24+G24))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>31</v>
@@ -1687,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1715,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1743,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1774,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1802,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1830,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2019,18 +2035,18 @@
         <v>5</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="19" t="n">
         <v>15</v>
@@ -2047,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2085,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2099,33 +2115,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="e">
-        <f aca="false">SUM(&amp;apos;liste des taches&amp;apos;!E2:E332)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B2" s="19" t="e">
-        <f aca="false">SUM(&amp;apos;liste des taches&amp;apos;!F2:F332)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="19" t="e">
-        <f aca="false">SUM(&amp;apos;liste des taches&amp;apos;!G2:G332)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="20" t="e">
+      <c r="A2" s="26" t="n">
+        <f aca="false">SUM('liste des taches'!E2:E329)</f>
+        <v>308</v>
+      </c>
+      <c r="B2" s="26" t="n">
+        <f aca="false">SUM('liste des taches'!F2:F329)</f>
+        <v>179</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <f aca="false">SUM('liste des taches'!G2:G329)</f>
+        <v>110</v>
+      </c>
+      <c r="D2" s="20" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="26" t="e">
+        <v>0.619377162629758</v>
+      </c>
+      <c r="E2" s="27" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>#VALUE!</v>
+        <v>-0.0616883116883117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="27" t="e">
+      <c r="C3" s="28" t="n">
         <f aca="false">C2/60</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="28" t="s">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2138,27 +2154,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">liste des villes + besoins + dons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIP</t>
   </si>
   <si>
     <t xml:space="preserve">filtre par region</t>
@@ -344,6 +341,7 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -844,7 +842,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="J24:J30 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -919,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1691,19 +1689,22 @@
       <c r="E25" s="19" t="n">
         <v>10</v>
       </c>
+      <c r="F25" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="G25" s="19" t="n">
         <f aca="false">E25-F25</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">(F25/(F25+G25))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1711,27 +1712,30 @@
         <v>29</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="E26" s="19" t="n">
         <v>15</v>
       </c>
+      <c r="F26" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="G26" s="19" t="n">
         <f aca="false">E26-F26</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">(F26/(F26+G26))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1739,128 +1743,140 @@
         <v>29</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="19" t="n">
         <v>20</v>
       </c>
+      <c r="F27" s="13" t="n">
+        <v>20</v>
+      </c>
       <c r="G27" s="19" t="n">
         <f aca="false">E27-F27</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">(F27/(F27+G27))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="19" t="n">
         <v>20</v>
       </c>
+      <c r="F28" s="13" t="n">
+        <v>20</v>
+      </c>
       <c r="G28" s="19" t="n">
         <f aca="false">E28-F28</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">(F28/(F28+G28))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="E29" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="19" t="n">
         <f aca="false">E29-F29</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">(F29/(F29+G29))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>3</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="19" t="n">
         <f aca="false">E30-F30</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">(F30/(F30+G30))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>3</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>38</v>
@@ -1888,7 +1904,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C32" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>38</v>
@@ -1916,7 +1932,7 @@
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>38</v>
@@ -1944,10 +1960,10 @@
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>52</v>
@@ -1981,7 +1997,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>34</v>
@@ -2009,33 +2025,36 @@
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="19" t="n">
         <v>15</v>
       </c>
+      <c r="F36" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="G36" s="19" t="n">
         <f aca="false">E36-F36</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" s="20" t="n">
         <f aca="false">(F36/(F36+G36))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2043,7 +2062,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>60</v>
@@ -2051,19 +2070,22 @@
       <c r="E37" s="19" t="n">
         <v>15</v>
       </c>
+      <c r="F37" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="G37" s="19" t="n">
         <f aca="false">E37-F37</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" s="20" t="n">
         <f aca="false">(F37/(F37+G37))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2107,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="J24:J30 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2099,19 +2121,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2121,15 +2143,15 @@
       </c>
       <c r="B2" s="26" t="n">
         <f aca="false">SUM('liste des taches'!F2:F329)</f>
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C2" s="26" t="n">
         <f aca="false">SUM('liste des taches'!G2:G329)</f>
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D2" s="20" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0.619377162629758</v>
+        <v>0.982698961937716</v>
       </c>
       <c r="E2" s="27" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
@@ -2139,10 +2161,10 @@
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="28" t="n">
         <f aca="false">C2/60</f>
-        <v>1.83333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -274,6 +274,90 @@
   </si>
   <si>
     <t xml:space="preserve">faire marcher les formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config_bngrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achat_bngrc (historiques des achats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dons_argent_bngrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">besoin_restant/achat.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achat des besoins a partir des argents obtenu (raha tsisy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simuler/valider le dispatch (dons → besoins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recapitulatif.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les stats en temps réel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AchatModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getBesoinsRestants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getBesoinsRestantsByVille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getAvailableMoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getTotalAvailableMoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function  getFraisAchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function createAchatSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function validateAchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function  getAchatsSimules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getAchatsValides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getRecapitulatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function getAchatSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function deleteAchatSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AchatController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desgin</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -305,7 +389,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +419,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -470,7 +560,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,6 +645,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,7 +669,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="J24:J30 B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -915,23 +1009,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24:J30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="36.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="50.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="13.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="14.15"/>
   </cols>
   <sheetData>
@@ -2086,6 +2180,513 @@
       </c>
       <c r="J37" s="18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="19" t="n">
+        <f aca="false">E38-F38</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="20" t="n">
+        <f aca="false">(F38/(F38+G38))</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="n">
+        <f aca="false">E39-F39</f>
+        <v>5</v>
+      </c>
+      <c r="H39" s="20" t="n">
+        <f aca="false">(F39/(F39+G39))</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="19" t="n">
+        <f aca="false">E40-F40</f>
+        <v>5</v>
+      </c>
+      <c r="H40" s="20" t="n">
+        <f aca="false">(F40/(F40+G40))</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="19" t="n">
+        <f aca="false">E41-F41</f>
+        <v>10</v>
+      </c>
+      <c r="H41" s="20" t="n">
+        <f aca="false">(F41/(F41+G41))</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <f aca="false">E42-F42</f>
+        <v>10</v>
+      </c>
+      <c r="H42" s="20" t="n">
+        <f aca="false">(F42/(F42+G42))</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" s="19" t="n">
+        <f aca="false">E43-F43</f>
+        <v>10</v>
+      </c>
+      <c r="H43" s="20" t="n">
+        <f aca="false">(F43/(F43+G43))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="19" t="n">
+        <f aca="false">E44-F44</f>
+        <v>10</v>
+      </c>
+      <c r="H44" s="20" t="n">
+        <f aca="false">(F44/(F44+G44))</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="0"/>
+      <c r="J44" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="19" t="n">
+        <f aca="false">E45-F45</f>
+        <v>10</v>
+      </c>
+      <c r="H45" s="20" t="n">
+        <f aca="false">(F45/(F45+G45))</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="0"/>
+      <c r="J45" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <f aca="false">E46-F46</f>
+        <v>10</v>
+      </c>
+      <c r="H46" s="20" t="n">
+        <f aca="false">(F46/(F46+G46))</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="19" t="n">
+        <f aca="false">E47-F47</f>
+        <v>10</v>
+      </c>
+      <c r="H47" s="20" t="n">
+        <f aca="false">(F47/(F47+G47))</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="19" t="n">
+        <f aca="false">E48-F48</f>
+        <v>10</v>
+      </c>
+      <c r="H48" s="20" t="n">
+        <f aca="false">(F48/(F48+G48))</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="19" t="n">
+        <f aca="false">E49-F49</f>
+        <v>10</v>
+      </c>
+      <c r="H49" s="20" t="n">
+        <f aca="false">(F49/(F49+G49))</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="19" t="n">
+        <f aca="false">E50-F50</f>
+        <v>10</v>
+      </c>
+      <c r="H50" s="20" t="n">
+        <f aca="false">(F50/(F50+G50))</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" s="19" t="n">
+        <f aca="false">E51-F51</f>
+        <v>10</v>
+      </c>
+      <c r="H51" s="20" t="n">
+        <f aca="false">(F51/(F51+G51))</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="19" t="n">
+        <f aca="false">E52-F52</f>
+        <v>10</v>
+      </c>
+      <c r="H52" s="20" t="n">
+        <f aca="false">(F52/(F52+G52))</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" s="19" t="n">
+        <f aca="false">E53-F53</f>
+        <v>10</v>
+      </c>
+      <c r="H53" s="20" t="n">
+        <f aca="false">(F53/(F53+G53))</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" s="19" t="n">
+        <f aca="false">E54-F54</f>
+        <v>10</v>
+      </c>
+      <c r="H54" s="20" t="n">
+        <f aca="false">(F54/(F54+G54))</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" s="19" t="n">
+        <f aca="false">E55-F55</f>
+        <v>10</v>
+      </c>
+      <c r="H55" s="20" t="n">
+        <f aca="false">(F55/(F55+G55))</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G56" s="19" t="n">
+        <f aca="false">E56-F56</f>
+        <v>15</v>
+      </c>
+      <c r="H56" s="20" t="n">
+        <f aca="false">(F56/(F56+G56))</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" s="19" t="n">
+        <f aca="false">E57-F57</f>
+        <v>5</v>
+      </c>
+      <c r="H57" s="20" t="n">
+        <f aca="false">(F57/(F57+G57))</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G58" s="19" t="n">
+        <f aca="false">E58-F58</f>
+        <v>15</v>
+      </c>
+      <c r="H58" s="20" t="n">
+        <f aca="false">(F58/(F58+G58))</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2106,65 +2707,65 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="J24:J30 C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="25.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="30.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="12.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="30.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="12.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="22.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>86</v>
+        <v>113</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>88</v>
+        <v>115</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="n">
+      <c r="A2" s="27" t="n">
         <f aca="false">SUM('liste des taches'!E2:E329)</f>
-        <v>308</v>
-      </c>
-      <c r="B2" s="26" t="n">
+        <v>508</v>
+      </c>
+      <c r="B2" s="27" t="n">
         <f aca="false">SUM('liste des taches'!F2:F329)</f>
         <v>284</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="27" t="n">
         <f aca="false">SUM('liste des taches'!G2:G329)</f>
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="D2" s="20" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0.982698961937716</v>
-      </c>
-      <c r="E2" s="27" t="n">
+        <v>0.580777096114519</v>
+      </c>
+      <c r="E2" s="28" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0616883116883117</v>
+        <v>-0.0374015748031496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="29" t="n">
         <f aca="false">C2/60</f>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>89</v>
+        <v>3.41666666666667</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="118">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -414,17 +414,19 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -535,7 +537,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,6 +561,24 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -601,11 +621,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,15 +641,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,7 +665,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,11 +681,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,13 +706,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Champ de la table dynamique" xfId="20"/>
+    <cellStyle name="Catégorie de la table dynamique" xfId="21"/>
+    <cellStyle name="Titre de la table dynamique" xfId="22"/>
+    <cellStyle name="Coin de la table dynamique" xfId="23"/>
+    <cellStyle name="Valeur de la table dynamique" xfId="24"/>
+    <cellStyle name="Résultat de la table dynamique" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -935,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -995,11 +1021,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1011,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1025,7 +1051,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="10.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="14.15"/>
   </cols>
   <sheetData>
@@ -2195,13 +2221,19 @@
       <c r="E38" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F38" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G38" s="19" t="n">
         <f aca="false">E38-F38</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="20" t="n">
         <f aca="false">(F38/(F38+G38))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>85</v>
@@ -2217,13 +2249,19 @@
       <c r="E39" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F39" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G39" s="19" t="n">
         <f aca="false">E39-F39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39" s="20" t="n">
         <f aca="false">(F39/(F39+G39))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>85</v>
@@ -2239,13 +2277,19 @@
       <c r="E40" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F40" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G40" s="19" t="n">
         <f aca="false">E40-F40</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20" t="n">
         <f aca="false">(F40/(F40+G40))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>85</v>
@@ -2267,13 +2311,19 @@
       <c r="E41" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="F41" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="G41" s="19" t="n">
         <f aca="false">E41-F41</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" s="20" t="n">
         <f aca="false">(F41/(F41+G41))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>85</v>
@@ -2292,13 +2342,19 @@
       <c r="E42" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="F42" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="G42" s="19" t="n">
         <f aca="false">E42-F42</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="20" t="n">
         <f aca="false">(F42/(F42+G42))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>85</v>
@@ -2317,70 +2373,82 @@
       <c r="E43" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="F43" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="G43" s="19" t="n">
         <f aca="false">E43-F43</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" s="20" t="n">
         <f aca="false">(F43/(F43+G43))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F44" s="0"/>
+      <c r="E44" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>10</v>
+      </c>
       <c r="G44" s="19" t="n">
         <f aca="false">E44-F44</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="20" t="n">
         <f aca="false">(F44/(F44+G44))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="J44" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" s="0"/>
+      <c r="E45" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>10</v>
+      </c>
       <c r="G45" s="19" t="n">
         <f aca="false">E45-F45</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="20" t="n">
         <f aca="false">(F45/(F45+G45))</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="J45" s="12" t="s">
         <v>85</v>
       </c>
@@ -2389,19 +2457,25 @@
       <c r="C46" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G46" s="19" t="n">
         <f aca="false">E46-F46</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" s="20" t="n">
         <f aca="false">(F46/(F46+G46))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>85</v>
@@ -2411,19 +2485,25 @@
       <c r="C47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G47" s="19" t="n">
         <f aca="false">E47-F47</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="20" t="n">
         <f aca="false">(F47/(F47+G47))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>85</v>
@@ -2433,19 +2513,25 @@
       <c r="C48" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G48" s="19" t="n">
         <f aca="false">E48-F48</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H48" s="20" t="n">
         <f aca="false">(F48/(F48+G48))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>85</v>
@@ -2455,19 +2541,25 @@
       <c r="C49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G49" s="19" t="n">
         <f aca="false">E49-F49</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" s="20" t="n">
         <f aca="false">(F49/(F49+G49))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>85</v>
@@ -2477,19 +2569,25 @@
       <c r="C50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G50" s="19" t="n">
         <f aca="false">E50-F50</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="20" t="n">
         <f aca="false">(F50/(F50+G50))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>85</v>
@@ -2499,19 +2597,25 @@
       <c r="C51" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G51" s="19" t="n">
         <f aca="false">E51-F51</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" s="20" t="n">
         <f aca="false">(F51/(F51+G51))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>85</v>
@@ -2521,19 +2625,25 @@
       <c r="C52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G52" s="19" t="n">
         <f aca="false">E52-F52</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="20" t="n">
         <f aca="false">(F52/(F52+G52))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>85</v>
@@ -2543,19 +2653,25 @@
       <c r="C53" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G53" s="19" t="n">
         <f aca="false">E53-F53</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H53" s="20" t="n">
         <f aca="false">(F53/(F53+G53))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>85</v>
@@ -2565,19 +2681,25 @@
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G54" s="19" t="n">
         <f aca="false">E54-F54</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H54" s="20" t="n">
         <f aca="false">(F54/(F54+G54))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>85</v>
@@ -2587,19 +2709,25 @@
       <c r="C55" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G55" s="19" t="n">
         <f aca="false">E55-F55</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H55" s="20" t="n">
         <f aca="false">(F55/(F55+G55))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>85</v>
@@ -2621,13 +2749,19 @@
       <c r="E56" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="F56" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="G56" s="19" t="n">
         <f aca="false">E56-F56</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H56" s="20" t="n">
         <f aca="false">(F56/(F56+G56))</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>85</v>
@@ -2646,13 +2780,16 @@
       <c r="E57" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="F57" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="G57" s="19" t="n">
         <f aca="false">E57-F57</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H57" s="20" t="n">
         <f aca="false">(F57/(F57+G57))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>4</v>
@@ -2674,13 +2811,16 @@
       <c r="E58" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="F58" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="G58" s="19" t="n">
         <f aca="false">E58-F58</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H58" s="20" t="n">
         <f aca="false">(F58/(F58+G58))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>5</v>
@@ -2744,15 +2884,15 @@
       </c>
       <c r="B2" s="27" t="n">
         <f aca="false">SUM('liste des taches'!F2:F329)</f>
-        <v>284</v>
+        <v>484</v>
       </c>
       <c r="C2" s="27" t="n">
         <f aca="false">SUM('liste des taches'!G2:G329)</f>
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="D2" s="20" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0.580777096114519</v>
+        <v>0.989775051124744</v>
       </c>
       <c r="E2" s="28" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
@@ -2762,7 +2902,7 @@
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="29" t="n">
         <f aca="false">C2/60</f>
-        <v>3.41666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>117</v>
